--- a/Doc/Planning PT.xlsx
+++ b/Doc/Planning PT.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan-Config\OneDrive - Efrei\Efrei Cours\L3\Projet Transverse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projets efrei\Projet transverse L3\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_AD4D9D64A577C15A4A5418EFF81D68225BDEDD8F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{886344A6-F83F-4D96-843E-4B79B1EDD600}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA0584C-CEC0-4F09-9481-B075CE63152A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K14"/>
+  <dimension ref="B3:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
@@ -474,13 +474,13 @@
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="0.75" customHeight="1"/>
-    <row r="5" spans="2:11" ht="30" customHeight="1">
+    <row r="4" spans="2:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -493,16 +493,8 @@
         <v>3</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="2:11">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="1"/>
       <c r="D6" s="6">
@@ -517,16 +509,8 @@
       <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="6">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="1"/>
       <c r="D7" s="6">
@@ -537,12 +521,8 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="2:11">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6">
@@ -553,52 +533,32 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="2:11">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
       <c r="F9" s="6"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="6">
-        <v>14</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:11">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
       <c r="E11" s="1"/>
       <c r="F11" s="6"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
@@ -609,24 +569,16 @@
       <c r="G12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:11">
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
       <c r="F13" s="6"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="2:11">
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="6">
@@ -637,10 +589,78 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="6"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="6">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
